--- a/01-Design/01-需求定义/练习题知识点(V1.0).xlsx
+++ b/01-Design/01-需求定义/练习题知识点(V1.0).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>年纪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>知识点关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整百整千加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add-Pl-Pr-Grade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整百整千减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub-Pl-Pr-Grade2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
@@ -536,10 +552,10 @@
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -547,10 +563,10 @@
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -558,10 +574,10 @@
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -569,10 +585,10 @@
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -580,10 +596,10 @@
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
@@ -591,10 +607,10 @@
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -602,10 +618,10 @@
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -613,24 +629,46 @@
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
